--- a/CSM_Azentio/TestData/CSMparamTestData.xlsx
+++ b/CSM_Azentio/TestData/CSMparamTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="231">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1358,7 +1358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5102,7 +5102,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6162,8 +6162,8 @@
       <c r="K15" s="26">
         <v>95916</v>
       </c>
-      <c r="L15" s="26">
-        <v>993567</v>
+      <c r="L15" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M15" s="26">
         <v>0</v>
@@ -6213,8 +6213,8 @@
       <c r="K16" s="26">
         <v>95916</v>
       </c>
-      <c r="L16" s="26">
-        <v>993567</v>
+      <c r="L16" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M16" s="26">
         <v>0</v>
@@ -6264,8 +6264,8 @@
       <c r="K17" s="26">
         <v>95916</v>
       </c>
-      <c r="L17" s="26">
-        <v>993567</v>
+      <c r="L17" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M17" s="26">
         <v>0</v>
@@ -6315,8 +6315,8 @@
       <c r="K18" s="26">
         <v>95916</v>
       </c>
-      <c r="L18" s="26">
-        <v>993567</v>
+      <c r="L18" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M18" s="26">
         <v>0</v>
@@ -6366,8 +6366,8 @@
       <c r="K19" s="26">
         <v>95916</v>
       </c>
-      <c r="L19" s="26">
-        <v>993567</v>
+      <c r="L19" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M19" s="26">
         <v>0</v>
@@ -6417,8 +6417,8 @@
       <c r="K20" s="26">
         <v>95916</v>
       </c>
-      <c r="L20" s="26">
-        <v>993567</v>
+      <c r="L20" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M20" s="26">
         <v>0</v>
@@ -6468,8 +6468,8 @@
       <c r="K21" s="26">
         <v>95916</v>
       </c>
-      <c r="L21" s="26">
-        <v>993567</v>
+      <c r="L21" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M21" s="26">
         <v>0</v>
@@ -6519,8 +6519,8 @@
       <c r="K22" s="26">
         <v>95916</v>
       </c>
-      <c r="L22" s="26">
-        <v>993567</v>
+      <c r="L22" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M22" s="26">
         <v>0</v>
@@ -6570,8 +6570,8 @@
       <c r="K23" s="26">
         <v>95916</v>
       </c>
-      <c r="L23" s="26">
-        <v>993567</v>
+      <c r="L23" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M23" s="26">
         <v>0</v>
@@ -6621,8 +6621,8 @@
       <c r="K24" s="26">
         <v>95916</v>
       </c>
-      <c r="L24" s="26">
-        <v>993567</v>
+      <c r="L24" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M24" s="26">
         <v>0</v>
@@ -6672,8 +6672,8 @@
       <c r="K25" s="26">
         <v>95916</v>
       </c>
-      <c r="L25" s="26">
-        <v>993567</v>
+      <c r="L25" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M25" s="26">
         <v>0</v>
@@ -6723,8 +6723,8 @@
       <c r="K26" s="26">
         <v>95916</v>
       </c>
-      <c r="L26" s="26">
-        <v>993567</v>
+      <c r="L26" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M26" s="26">
         <v>0</v>
@@ -6752,7 +6752,9 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="10"/>
@@ -6793,8 +6795,8 @@
       <c r="K28" s="26">
         <v>95916</v>
       </c>
-      <c r="L28" s="26">
-        <v>993567</v>
+      <c r="L28" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M28" s="26">
         <v>0</v>
@@ -6843,8 +6845,8 @@
       <c r="K29" s="26">
         <v>95916</v>
       </c>
-      <c r="L29" s="26">
-        <v>993567</v>
+      <c r="L29" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M29" s="26">
         <v>0</v>
@@ -6893,8 +6895,8 @@
       <c r="K30" s="26">
         <v>95916</v>
       </c>
-      <c r="L30" s="26">
-        <v>993567</v>
+      <c r="L30" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M30" s="26">
         <v>0</v>
@@ -6943,8 +6945,8 @@
       <c r="K31" s="26">
         <v>95916</v>
       </c>
-      <c r="L31" s="26">
-        <v>993567</v>
+      <c r="L31" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M31" s="26">
         <v>0</v>
@@ -6993,8 +6995,8 @@
       <c r="K32" s="26">
         <v>95916</v>
       </c>
-      <c r="L32" s="26">
-        <v>993567</v>
+      <c r="L32" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M32" s="26">
         <v>0</v>
@@ -7043,8 +7045,8 @@
       <c r="K33" s="26">
         <v>95916</v>
       </c>
-      <c r="L33" s="26">
-        <v>993567</v>
+      <c r="L33" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M33" s="26">
         <v>0</v>
@@ -7093,8 +7095,8 @@
       <c r="K34" s="26">
         <v>95916</v>
       </c>
-      <c r="L34" s="26">
-        <v>993567</v>
+      <c r="L34" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M34" s="26">
         <v>0</v>
@@ -7143,8 +7145,8 @@
       <c r="K35" s="26">
         <v>95916</v>
       </c>
-      <c r="L35" s="26">
-        <v>993567</v>
+      <c r="L35" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M35" s="26">
         <v>0</v>
@@ -7193,8 +7195,8 @@
       <c r="K36" s="26">
         <v>95916</v>
       </c>
-      <c r="L36" s="26">
-        <v>993567</v>
+      <c r="L36" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M36" s="26">
         <v>0</v>
@@ -7243,8 +7245,8 @@
       <c r="K37" s="26">
         <v>95916</v>
       </c>
-      <c r="L37" s="26">
-        <v>993567</v>
+      <c r="L37" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M37" s="26">
         <v>0</v>
@@ -7293,8 +7295,8 @@
       <c r="K38" s="26">
         <v>95916</v>
       </c>
-      <c r="L38" s="26">
-        <v>993567</v>
+      <c r="L38" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M38" s="26">
         <v>0</v>
@@ -7343,8 +7345,8 @@
       <c r="K39" s="26">
         <v>95916</v>
       </c>
-      <c r="L39" s="26">
-        <v>993567</v>
+      <c r="L39" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="M39" s="26">
         <v>0</v>

--- a/CSM_Azentio/TestData/CSMparamTestData.xlsx
+++ b/CSM_Azentio/TestData/CSMparamTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="238">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -713,6 +713,27 @@
   </si>
   <si>
     <t>522</t>
+  </si>
+  <si>
+    <t>TRS_393</t>
+  </si>
+  <si>
+    <t>TRS_393_D1</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>TRS_394</t>
+  </si>
+  <si>
+    <t>TRS_394_D1</t>
+  </si>
+  <si>
+    <t>ModeOfpayment</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -5099,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5121,18 +5142,20 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
-    <col min="22" max="23" width="9.85546875" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75">
+    <row r="1" spans="1:27" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5179,40 +5202,43 @@
         <v>4</v>
       </c>
       <c r="P1" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="43" t="s">
         <v>111</v>
       </c>
@@ -5260,33 +5286,34 @@
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="10">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10">
         <v>1095</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="AA2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="43" t="s">
         <v>133</v>
       </c>
@@ -5334,33 +5361,34 @@
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10">
         <v>1095</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="V3" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="W3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="AA3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="43" t="s">
         <v>135</v>
       </c>
@@ -5408,33 +5436,34 @@
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
         <v>1095</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Z4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="AA4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="43" t="s">
         <v>137</v>
       </c>
@@ -5482,33 +5511,34 @@
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10">
         <v>1095</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="V5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="W5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="X5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Z5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="AA5" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="43" t="s">
         <v>139</v>
       </c>
@@ -5556,33 +5586,34 @@
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="10">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10">
         <v>1095</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="35" t="s">
+      <c r="T6" s="26"/>
+      <c r="U6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="W6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="Y6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Z6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="AA6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="43" t="s">
         <v>141</v>
       </c>
@@ -5630,33 +5661,34 @@
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10">
         <v>1095</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="W7" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="X7" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="Y7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Z7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="AA7" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="43" t="s">
         <v>143</v>
       </c>
@@ -5704,33 +5736,34 @@
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
         <v>1095</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="AA8" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="43" t="s">
         <v>145</v>
       </c>
@@ -5778,33 +5811,34 @@
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
         <v>1095</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="V9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="W9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="X9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="Y9" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="35" t="s">
+      <c r="Z9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="AA9" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="43" t="s">
         <v>151</v>
       </c>
@@ -5852,33 +5886,34 @@
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
         <v>1095</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="W10" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="X10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="Y10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y10" s="35" t="s">
+      <c r="Z10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="AA10" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
@@ -5926,33 +5961,34 @@
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
         <v>1095</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="26"/>
+      <c r="U11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="V11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="W11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="X11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="Y11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="Z11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="AA11" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="43" t="s">
         <v>153</v>
       </c>
@@ -6000,33 +6036,34 @@
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10">
         <v>1095</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="35" t="s">
+      <c r="T12" s="26"/>
+      <c r="U12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="Y12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="Z12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="35" t="s">
+      <c r="AA12" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="43" t="s">
         <v>154</v>
       </c>
@@ -6074,33 +6111,34 @@
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10">
         <v>1095</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="26"/>
+      <c r="U13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="X13" s="35" t="s">
+      <c r="Y13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Y13" s="35" t="s">
+      <c r="Z13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="35" t="s">
+      <c r="AA13" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="35"/>
@@ -6118,17 +6156,18 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
       <c r="Y14" s="47"/>
       <c r="Z14" s="47"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="47"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="43" t="s">
         <v>160</v>
       </c>
@@ -6175,11 +6214,12 @@
         <v>8</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="49" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="43" t="s">
         <v>162</v>
       </c>
@@ -6226,11 +6266,12 @@
         <v>8</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="43" t="s">
         <v>164</v>
       </c>
@@ -6277,11 +6318,12 @@
         <v>8</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="43" t="s">
         <v>166</v>
       </c>
@@ -6328,11 +6370,12 @@
         <v>8</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="49" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="43" t="s">
         <v>168</v>
       </c>
@@ -6379,11 +6422,12 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="49" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="43" t="s">
         <v>170</v>
       </c>
@@ -6430,11 +6474,12 @@
         <v>8</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="43" t="s">
         <v>172</v>
       </c>
@@ -6481,11 +6526,12 @@
         <v>8</v>
       </c>
       <c r="P21" s="10"/>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="43" t="s">
         <v>175</v>
       </c>
@@ -6532,11 +6578,12 @@
         <v>8</v>
       </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="43" t="s">
         <v>177</v>
       </c>
@@ -6583,11 +6630,12 @@
         <v>8</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="49" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="43" t="s">
         <v>179</v>
       </c>
@@ -6634,11 +6682,12 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="43" t="s">
         <v>181</v>
       </c>
@@ -6685,11 +6734,12 @@
         <v>8</v>
       </c>
       <c r="P25" s="10"/>
-      <c r="Q25" s="49" t="s">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="43" t="s">
         <v>182</v>
       </c>
@@ -6736,11 +6786,12 @@
         <v>8</v>
       </c>
       <c r="P26" s="10"/>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
       <c r="C27" s="35"/>
@@ -6759,9 +6810,10 @@
       <c r="N27" s="26"/>
       <c r="O27" s="10"/>
       <c r="P27" s="45"/>
-      <c r="Q27" s="54"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="Q27" s="45"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="43" t="s">
         <v>202</v>
       </c>
@@ -6807,11 +6859,12 @@
       <c r="O28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="43" t="s">
         <v>207</v>
       </c>
@@ -6857,11 +6910,12 @@
       <c r="O29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="43" t="s">
         <v>209</v>
       </c>
@@ -6907,11 +6961,12 @@
       <c r="O30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="43" t="s">
         <v>211</v>
       </c>
@@ -6957,11 +7012,12 @@
       <c r="O31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="43" t="s">
         <v>213</v>
       </c>
@@ -7007,11 +7063,12 @@
       <c r="O32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="43" t="s">
         <v>215</v>
       </c>
@@ -7057,11 +7114,12 @@
       <c r="O33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" s="43" t="s">
         <v>217</v>
       </c>
@@ -7107,11 +7165,12 @@
       <c r="O34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="43" t="s">
         <v>219</v>
       </c>
@@ -7157,11 +7216,12 @@
       <c r="O35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="43" t="s">
         <v>221</v>
       </c>
@@ -7207,11 +7267,12 @@
       <c r="O36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="43" t="s">
         <v>223</v>
       </c>
@@ -7257,11 +7318,12 @@
       <c r="O37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="43" t="s">
         <v>225</v>
       </c>
@@ -7307,11 +7369,12 @@
       <c r="O38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="43" t="s">
         <v>227</v>
       </c>
@@ -7357,9 +7420,131 @@
       <c r="O39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10">
         <v>586</v>
       </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26">
+        <v>840</v>
+      </c>
+      <c r="F41" s="3">
+        <v>95916</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
+        <v>1</v>
+      </c>
+      <c r="J41" s="26">
+        <v>840</v>
+      </c>
+      <c r="K41" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="26">
+        <v>0</v>
+      </c>
+      <c r="N41" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26">
+        <v>840</v>
+      </c>
+      <c r="F42" s="3">
+        <v>95916</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26">
+        <v>840</v>
+      </c>
+      <c r="K42" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="26">
+        <v>0</v>
+      </c>
+      <c r="N42" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSM_Azentio/TestData/CSMparamTestData.xlsx
+++ b/CSM_Azentio/TestData/CSMparamTestData.xlsx
@@ -12,15 +12,16 @@
     <sheet name="CSM_Login" sheetId="11" r:id="rId3"/>
     <sheet name="CSM_Systemparameter" sheetId="4" r:id="rId4"/>
     <sheet name="CSM_TransactionOnStaffAcc" sheetId="8" r:id="rId5"/>
-    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId6"/>
-    <sheet name="CSM_Transaction" sheetId="6" r:id="rId7"/>
+    <sheet name="CSM_TransferAccount" sheetId="14" r:id="rId6"/>
+    <sheet name="CSM_Transactions_TestData" sheetId="9" r:id="rId7"/>
+    <sheet name="CSM_Transaction" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="257">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -734,6 +735,63 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>DestinationBranch</t>
+  </si>
+  <si>
+    <t>BranchCodeFA</t>
+  </si>
+  <si>
+    <t>GLCodeFA</t>
+  </si>
+  <si>
+    <t>CIFCodeFA</t>
+  </si>
+  <si>
+    <t>SLCodeFA</t>
+  </si>
+  <si>
+    <t>BranchCodeTA</t>
+  </si>
+  <si>
+    <t>CYCodeFA</t>
+  </si>
+  <si>
+    <t>CYCodeTA</t>
+  </si>
+  <si>
+    <t>GLCodeTA</t>
+  </si>
+  <si>
+    <t>CIFCodeTA</t>
+  </si>
+  <si>
+    <t>SLCodeTA</t>
+  </si>
+  <si>
+    <t>TA_001</t>
+  </si>
+  <si>
+    <t>TA_001_D1</t>
+  </si>
+  <si>
+    <t>From Branch To Branch</t>
+  </si>
+  <si>
+    <t>TA_002</t>
+  </si>
+  <si>
+    <t>TA_002_D1</t>
+  </si>
+  <si>
+    <t>TA_003</t>
+  </si>
+  <si>
+    <t>TA_003_D1</t>
   </si>
 </sst>
 </file>
@@ -803,7 +861,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,8 +916,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -947,6 +1011,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -961,7 +1038,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1067,6 +1144,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="6"/>
@@ -1379,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5120,10 +5208,1058 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="61">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>840</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5688</v>
+      </c>
+      <c r="I2" s="3">
+        <v>993648</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>840</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5688</v>
+      </c>
+      <c r="N2" s="3">
+        <v>993648</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="61">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>840</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7845</v>
+      </c>
+      <c r="I3" s="3">
+        <v>993652</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>840</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7845</v>
+      </c>
+      <c r="N3" s="3">
+        <v>993652</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="61">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>840</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7845</v>
+      </c>
+      <c r="I4" s="3">
+        <v>993652</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>840</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7845</v>
+      </c>
+      <c r="N4" s="3">
+        <v>993652</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7552,7 +8688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR96"/>
   <sheetViews>

--- a/CSM_Azentio/TestData/CSMparamTestData.xlsx
+++ b/CSM_Azentio/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SadsLogin" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="259">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -792,6 +792,12 @@
   </si>
   <si>
     <t>TA_003_D1</t>
+  </si>
+  <si>
+    <t>TRS_257</t>
+  </si>
+  <si>
+    <t>TRS_257_D1</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5210,7 +5216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -6258,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8562,23 +8568,53 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="26"/>
+      <c r="A40" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="26">
+        <v>840</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1617</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0</v>
+      </c>
       <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="10"/>
+      <c r="J40" s="26">
+        <v>840</v>
+      </c>
+      <c r="K40" s="26">
+        <v>95916</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="Q40" s="10">
+        <v>586</v>
+      </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="43" t="s">
